--- a/Budget_and_Justification/2022 Budget/Hickernell_NSF_CDSE-MSS_Budget_v2_07-07-23_revised.xlsx
+++ b/Budget_and_Justification/2022 Budget/Hickernell_NSF_CDSE-MSS_Budget_v2_07-07-23_revised.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredjhickernell/SoftwareRepositories/NSF_2020_CDSE_MSS/Budget_and_Justification/2022 Budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredjhickernell/SoftwareRepositories/NSF_2020_CDSE_MSS/Budget_and_Justification/2022 budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C0FC4D-D898-E041-A1C2-EF7C333A8FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F4F165-EC94-EF4E-A9CE-CFE458DB31CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26560" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39180" yWindow="500" windowWidth="34160" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -1793,10 +1793,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1816,6 +1812,10 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1832,14 +1832,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1849,6 +1841,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2201,7 +2201,9 @@
   </sheetPr>
   <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2224,13 +2226,13 @@
       <c r="A1" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
       <c r="G1" s="116" t="s">
         <v>148</v>
       </c>
@@ -2270,12 +2272,12 @@
       <c r="B4" s="4">
         <v>0.54</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
       <c r="I4" s="122" t="s">
         <v>153</v>
       </c>
@@ -2362,22 +2364,22 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="141" t="s">
+      <c r="G8" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="141" t="s">
+      <c r="H8" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="141" t="s">
+      <c r="I8" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="141" t="s">
+      <c r="J8" s="140" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2385,12 +2387,12 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
+      <c r="D9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2406,7 +2408,7 @@
       <c r="O9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="139" t="s">
+      <c r="P9" s="138" t="s">
         <v>26</v>
       </c>
       <c r="Q9" s="54"/>
@@ -2421,15 +2423,15 @@
       <c r="C10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="141"/>
+      <c r="D10" s="140"/>
       <c r="E10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
       <c r="K10" s="1">
         <v>1</v>
       </c>
@@ -2445,13 +2447,13 @@
       <c r="O10" s="1">
         <v>5</v>
       </c>
-      <c r="P10" s="139"/>
+      <c r="P10" s="138"/>
       <c r="Q10" s="54" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="136" t="str">
+      <c r="A11" s="141" t="str">
         <f>B1</f>
         <v>Fred Hickernell</v>
       </c>
@@ -2499,7 +2501,7 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="136"/>
+      <c r="A12" s="141"/>
       <c r="B12" s="49" t="str">
         <f>B11</f>
         <v>PI</v>
@@ -2553,7 +2555,7 @@
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="141" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="49" t="s">
@@ -2600,7 +2602,7 @@
       <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="136"/>
+      <c r="A14" s="141"/>
       <c r="B14" s="49" t="str">
         <f>B13</f>
         <v>Co-PI 1</v>
@@ -2654,7 +2656,7 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
+      <c r="A15" s="141"/>
       <c r="B15" s="49" t="s">
         <v>90</v>
       </c>
@@ -2695,7 +2697,7 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="136"/>
+      <c r="A16" s="141"/>
       <c r="B16" s="49" t="str">
         <f>B15</f>
         <v>Co-PI 2</v>
@@ -2743,7 +2745,7 @@
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="136"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="49" t="s">
         <v>91</v>
       </c>
@@ -2784,7 +2786,7 @@
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="136"/>
+      <c r="A18" s="141"/>
       <c r="B18" s="49" t="str">
         <f>B17</f>
         <v>Co-PI 3</v>
@@ -2832,7 +2834,7 @@
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="136"/>
+      <c r="A19" s="141"/>
       <c r="B19" s="49" t="s">
         <v>92</v>
       </c>
@@ -2873,7 +2875,7 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="136"/>
+      <c r="A20" s="141"/>
       <c r="B20" s="49" t="str">
         <f>B19</f>
         <v>Co-PI 4</v>
@@ -3070,27 +3072,27 @@
         <v>6000</v>
       </c>
       <c r="F24" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" s="26">
-        <v>3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H24" s="26">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="7">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="L24" s="7">
         <f>IF($D$24&gt;0,ROUND((G24*$E24*$B$5^(L$10-1))/$D$24,0),0)</f>
-        <v>6240</v>
+        <v>2392</v>
       </c>
       <c r="M24" s="7">
         <f>IF($D$24&gt;0,ROUND((H24*$E24*$B$5^(M$10-1))/$D$24,0),0)</f>
-        <v>6490</v>
+        <v>2380</v>
       </c>
       <c r="N24" s="7">
         <f>IF($D$24&gt;0,ROUND((I24*$E24*$B$5^(N$10-1))/$D$24,0),0)</f>
@@ -3102,7 +3104,7 @@
       </c>
       <c r="P24" s="8">
         <f t="shared" si="1"/>
-        <v>18730</v>
+        <v>4772</v>
       </c>
       <c r="Q24" s="10"/>
     </row>
@@ -3123,27 +3125,27 @@
         <v>6000</v>
       </c>
       <c r="F25" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="7">
         <f>IF(D25&gt;0,ROUND(($F25*$E25)/D25,0),)</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="L25" s="7">
         <f>IF($D$25&gt;0,ROUND((G25*$E25*$B$5^(L$10-1))/$D$25,0),0)</f>
-        <v>6240</v>
+        <v>0</v>
       </c>
       <c r="M25" s="7">
         <f>IF($D$25&gt;0,ROUND((H25*$E25*$B$5^(M$10-1))/$D$25,0),0)</f>
-        <v>6490</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
         <f>IF($D$25&gt;0,ROUND((I25*$E25*$B$5^(N$10-1))/$D$25,0),0)</f>
@@ -3155,7 +3157,7 @@
       </c>
       <c r="P25" s="8">
         <f t="shared" si="1"/>
-        <v>18730</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="10"/>
     </row>
@@ -3174,15 +3176,15 @@
       <c r="J26" s="27"/>
       <c r="K26" s="28">
         <f t="shared" ref="K26:O26" si="2">SUM(K11:K25)</f>
-        <v>68113</v>
+        <v>56113</v>
       </c>
       <c r="L26" s="28">
         <f t="shared" si="2"/>
-        <v>70837</v>
+        <v>60749</v>
       </c>
       <c r="M26" s="28">
         <f t="shared" si="2"/>
-        <v>73672</v>
+        <v>63072</v>
       </c>
       <c r="N26" s="28">
         <f t="shared" si="2"/>
@@ -3194,11 +3196,11 @@
       </c>
       <c r="P26" s="29">
         <f>SUM(P11:P25)</f>
-        <v>212622</v>
+        <v>179934</v>
       </c>
       <c r="Q26" s="10">
         <f>SUM(K26:O26)</f>
-        <v>212622</v>
+        <v>179934</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -3226,7 +3228,7 @@
       <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="136" t="str">
+      <c r="A29" s="141" t="str">
         <f t="shared" ref="A29:C41" si="3">A11</f>
         <v>Fred Hickernell</v>
       </c>
@@ -3265,7 +3267,7 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="136"/>
+      <c r="A30" s="141"/>
       <c r="B30" s="49" t="str">
         <f t="shared" si="3"/>
         <v>PI</v>
@@ -3301,7 +3303,7 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="136" t="str">
+      <c r="A31" s="141" t="str">
         <f t="shared" si="3"/>
         <v>Yuhan Ding</v>
       </c>
@@ -3340,7 +3342,7 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="136"/>
+      <c r="A32" s="141"/>
       <c r="B32" s="49" t="str">
         <f t="shared" si="3"/>
         <v>Co-PI 1</v>
@@ -3376,7 +3378,7 @@
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="136">
+      <c r="A33" s="141">
         <f>A15</f>
         <v>0</v>
       </c>
@@ -3415,7 +3417,7 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="136"/>
+      <c r="A34" s="141"/>
       <c r="B34" s="49" t="str">
         <f t="shared" si="3"/>
         <v>Co-PI 2</v>
@@ -3451,7 +3453,7 @@
       <c r="Q34" s="10"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="136">
+      <c r="A35" s="141">
         <f>A17</f>
         <v>0</v>
       </c>
@@ -3490,7 +3492,7 @@
       <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="136"/>
+      <c r="A36" s="141"/>
       <c r="B36" s="49" t="str">
         <f t="shared" si="3"/>
         <v>Co-PI 3</v>
@@ -3526,7 +3528,7 @@
       <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="136">
+      <c r="A37" s="141">
         <f>A19</f>
         <v>0</v>
       </c>
@@ -3565,7 +3567,7 @@
       <c r="Q37" s="10"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="136"/>
+      <c r="A38" s="141"/>
       <c r="B38" s="49" t="str">
         <f t="shared" si="3"/>
         <v>Co-PI 4</v>
@@ -3856,15 +3858,15 @@
       <c r="J46" s="30"/>
       <c r="K46" s="31">
         <f t="shared" ref="K46:P46" si="7">K44+K26</f>
-        <v>70758</v>
+        <v>58758</v>
       </c>
       <c r="L46" s="31">
         <f t="shared" si="7"/>
-        <v>73587</v>
+        <v>63499</v>
       </c>
       <c r="M46" s="31">
         <f t="shared" si="7"/>
-        <v>76533</v>
+        <v>65933</v>
       </c>
       <c r="N46" s="31">
         <f t="shared" si="7"/>
@@ -3876,11 +3878,11 @@
       </c>
       <c r="P46" s="32">
         <f t="shared" si="7"/>
-        <v>220878</v>
+        <v>188190</v>
       </c>
       <c r="Q46" s="10">
         <f>SUM(K46:O46)</f>
-        <v>220878</v>
+        <v>188190</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -4148,15 +4150,13 @@
         <v>80</v>
       </c>
       <c r="K59" s="22">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="L59" s="1">
-        <f>ROUND(IF($B$6&gt;=L$10,$K$59*$B$5^(L$10-1),0),0)</f>
-        <v>12480</v>
+        <v>1000</v>
       </c>
       <c r="M59" s="1">
-        <f>ROUND(IF($B$6&gt;=M$10,$K$59*$B$5^(M$10-1),0),0)</f>
-        <v>12979</v>
+        <v>1000</v>
       </c>
       <c r="N59" s="1">
         <f>ROUND(IF($B$6&gt;=N$10,$K$59*$B$5^(N$10-1),0),0)</f>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="P59" s="10">
         <f>SUM(K59:O59)</f>
-        <v>37459</v>
+        <v>3000</v>
       </c>
       <c r="Q59" s="10"/>
     </row>
@@ -4180,15 +4180,13 @@
         <v>103</v>
       </c>
       <c r="K60" s="22">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L60" s="1">
-        <f>ROUND(IF($B$6&gt;=L$10,$K$60*$B$5^(L$10-1),0),0)</f>
-        <v>6240</v>
+        <v>2000</v>
       </c>
       <c r="M60" s="1">
-        <f>ROUND(IF($B$6&gt;=M$10,$K$60*$B$5^(M$10-1),0),0)</f>
-        <v>6490</v>
+        <v>2000</v>
       </c>
       <c r="N60" s="1">
         <f>ROUND(IF($B$6&gt;=N$10,$K$60*$B$5^(N$10-1),0),0)</f>
@@ -4200,7 +4198,7 @@
       </c>
       <c r="P60" s="10">
         <f>SUM(K60:O60)</f>
-        <v>18730</v>
+        <v>6000</v>
       </c>
       <c r="Q60" s="10"/>
     </row>
@@ -4219,15 +4217,15 @@
       <c r="J61" s="30"/>
       <c r="K61" s="31">
         <f t="shared" ref="K61:P61" si="10">SUM(K59:K60)</f>
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="L61" s="31">
         <f t="shared" si="10"/>
-        <v>18720</v>
+        <v>3000</v>
       </c>
       <c r="M61" s="31">
         <f t="shared" si="10"/>
-        <v>19469</v>
+        <v>3000</v>
       </c>
       <c r="N61" s="31">
         <f t="shared" si="10"/>
@@ -4239,11 +4237,11 @@
       </c>
       <c r="P61" s="32">
         <f t="shared" si="10"/>
-        <v>56189</v>
+        <v>9000</v>
       </c>
       <c r="Q61" s="10">
         <f>SUM(K61:O61)</f>
-        <v>56189</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -4509,15 +4507,15 @@
         <v>140</v>
       </c>
       <c r="K73" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1">
         <f>ROUND(IF($B$6&gt;=L$10,$K$73*$B$5^(L$10-1),0),0)</f>
-        <v>2080</v>
+        <v>0</v>
       </c>
       <c r="M73" s="1">
         <f>ROUND(IF($B$6&gt;=M$10,$K$73*$B$5^(M$10-1),0),0)</f>
-        <v>2163</v>
+        <v>0</v>
       </c>
       <c r="N73" s="1">
         <f>ROUND(IF($B$6&gt;=N$10,$K$73*$B$5^(N$10-1),0),0)</f>
@@ -4529,7 +4527,7 @@
       </c>
       <c r="P73" s="8">
         <f t="shared" ref="P73:P81" si="12">SUM(K73:O73)</f>
-        <v>6243</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="10"/>
     </row>
@@ -4538,15 +4536,15 @@
         <v>46</v>
       </c>
       <c r="K74" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1">
         <f>ROUND(IF($B$6&gt;=L$10,$K$74*$B$5^(L$10-1),0),0)</f>
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="M74" s="1">
         <f>ROUND(IF($B$6&gt;=M$10,$K$74*$B$5^(M$10-1),0),0)</f>
-        <v>1082</v>
+        <v>0</v>
       </c>
       <c r="N74" s="1">
         <f>ROUND(IF($B$6&gt;=N$10,$K$74*$B$5^(N$10-1),0),0)</f>
@@ -4558,7 +4556,7 @@
       </c>
       <c r="P74" s="8">
         <f t="shared" si="12"/>
-        <v>3122</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="10"/>
     </row>
@@ -4803,15 +4801,15 @@
       <c r="J82" s="30"/>
       <c r="K82" s="31">
         <f t="shared" ref="K82:P82" si="13">SUM(K73:K81)</f>
-        <v>17814</v>
+        <v>14814</v>
       </c>
       <c r="L82" s="31">
         <f t="shared" si="13"/>
-        <v>18527</v>
+        <v>15407</v>
       </c>
       <c r="M82" s="31">
         <f t="shared" si="13"/>
-        <v>19268</v>
+        <v>16023</v>
       </c>
       <c r="N82" s="31">
         <f t="shared" si="13"/>
@@ -4823,11 +4821,11 @@
       </c>
       <c r="P82" s="32">
         <f t="shared" si="13"/>
-        <v>55609</v>
+        <v>46244</v>
       </c>
       <c r="Q82" s="10">
         <f>SUM(K82:O82)</f>
-        <v>55609</v>
+        <v>46244</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -5194,15 +5192,15 @@
       <c r="J98" s="27"/>
       <c r="K98" s="28">
         <f>K46+K51+K56+K69+K82+K88+K61</f>
-        <v>106572</v>
+        <v>76572</v>
       </c>
       <c r="L98" s="28">
         <f>L46+L51+L56+L69+L82+L88+L61</f>
-        <v>110834</v>
+        <v>81906</v>
       </c>
       <c r="M98" s="28">
         <f>M46+M51+M56+M69+M82+M88+M61</f>
-        <v>115270</v>
+        <v>84956</v>
       </c>
       <c r="N98" s="28">
         <f>N46+N51+N56+N69+N82+N88+N61</f>
@@ -5214,11 +5212,11 @@
       </c>
       <c r="P98" s="29">
         <f>SUM(K98:O98)</f>
-        <v>332676</v>
+        <v>243434</v>
       </c>
       <c r="Q98" s="10">
         <f>P46+P51+P56+P69+P82+P88+P61</f>
-        <v>332676</v>
+        <v>243434</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -5243,15 +5241,15 @@
       <c r="J100" s="30"/>
       <c r="K100" s="31">
         <f>ROUND(K104*$B$100,0)</f>
-        <v>49549</v>
+        <v>33349</v>
       </c>
       <c r="L100" s="31">
         <f>ROUND(L104*$B$100,0)</f>
-        <v>51531</v>
+        <v>35909</v>
       </c>
       <c r="M100" s="31">
         <f>ROUND(M104*$B$100,0)</f>
-        <v>53593</v>
+        <v>37224</v>
       </c>
       <c r="N100" s="31">
         <f>ROUND(N104*$B$100,0)</f>
@@ -5263,11 +5261,11 @@
       </c>
       <c r="P100" s="32">
         <f>SUM(K100:O100)</f>
-        <v>154673</v>
+        <v>106482</v>
       </c>
       <c r="Q100" s="10">
         <f>ROUND(P104*$B$100,0)</f>
-        <v>154673</v>
+        <v>106483</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -5289,15 +5287,15 @@
       <c r="J102" s="23"/>
       <c r="K102" s="24">
         <f>K98+K100</f>
-        <v>156121</v>
+        <v>109921</v>
       </c>
       <c r="L102" s="24">
         <f>L98+L100</f>
-        <v>162365</v>
+        <v>117815</v>
       </c>
       <c r="M102" s="24">
         <f>M98+M100</f>
-        <v>168863</v>
+        <v>122180</v>
       </c>
       <c r="N102" s="24">
         <f>N98+N100</f>
@@ -5309,11 +5307,11 @@
       </c>
       <c r="P102" s="25">
         <f>SUM(K102:O102)</f>
-        <v>487349</v>
+        <v>349916</v>
       </c>
       <c r="Q102" s="10">
         <f>P98+P100</f>
-        <v>487349</v>
+        <v>349916</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -5335,15 +5333,15 @@
       <c r="J104" s="27"/>
       <c r="K104" s="28">
         <f>K98-K56-K69-K79-K81-K88+K94</f>
-        <v>91758</v>
+        <v>61758</v>
       </c>
       <c r="L104" s="28">
         <f>L98-L56-L69-L79-L81-L88+L94</f>
-        <v>95427</v>
+        <v>66499</v>
       </c>
       <c r="M104" s="28">
         <f>M98-M56-M69-M79-M81-M88+M94</f>
-        <v>99247</v>
+        <v>68933</v>
       </c>
       <c r="N104" s="28">
         <f>N98-N56-N69-N79-N81-N88+N94</f>
@@ -5355,11 +5353,11 @@
       </c>
       <c r="P104" s="29">
         <f>SUM(K104:O104)</f>
-        <v>286432</v>
+        <v>197190</v>
       </c>
       <c r="Q104" s="9">
         <f>P98-P56-P69-P79-P81-P88+P94</f>
-        <v>286432</v>
+        <v>197190</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -5528,15 +5526,15 @@
       <c r="J111" s="34"/>
       <c r="K111" s="35">
         <f>K102+K109</f>
-        <v>170935</v>
+        <v>124735</v>
       </c>
       <c r="L111" s="35">
         <f t="shared" ref="L111:O111" si="17">L102+L109</f>
-        <v>177772</v>
+        <v>133222</v>
       </c>
       <c r="M111" s="35">
         <f t="shared" si="17"/>
-        <v>184886</v>
+        <v>138203</v>
       </c>
       <c r="N111" s="35">
         <f t="shared" si="17"/>
@@ -5548,11 +5546,11 @@
       </c>
       <c r="P111" s="36">
         <f>SUM(K111:O111)</f>
-        <v>533593</v>
+        <v>396160</v>
       </c>
       <c r="Q111" s="10">
         <f>P102+P109</f>
-        <v>533593</v>
+        <v>396160</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -5561,15 +5559,15 @@
       </c>
       <c r="K112" s="37">
         <f t="shared" ref="K112:O112" si="18">K109/K111</f>
-        <v>8.6664521601778455E-2</v>
+        <v>0.11876377921192929</v>
       </c>
       <c r="L112" s="37">
         <f t="shared" si="18"/>
-        <v>8.6667191683729716E-2</v>
+        <v>0.11564906697092071</v>
       </c>
       <c r="M112" s="37">
         <f t="shared" si="18"/>
-        <v>8.6664214705277853E-2</v>
+        <v>0.11593814895479837</v>
       </c>
       <c r="N112" s="37" t="e">
         <f t="shared" si="18"/>
@@ -5581,7 +5579,7 @@
       </c>
       <c r="P112" s="37">
         <f>P109/P111</f>
-        <v>8.6665304829711035E-2</v>
+        <v>0.11673061389337641</v>
       </c>
       <c r="Q112" s="43"/>
     </row>
@@ -5615,24 +5613,24 @@
       </c>
     </row>
     <row r="116" spans="1:17" s="65" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="137" t="s">
+      <c r="A116" s="136" t="s">
         <v>158</v>
       </c>
-      <c r="B116" s="137"/>
-      <c r="C116" s="137"/>
-      <c r="D116" s="137"/>
-      <c r="E116" s="137"/>
-      <c r="F116" s="137"/>
-      <c r="G116" s="137"/>
-      <c r="H116" s="137"/>
-      <c r="I116" s="137"/>
-      <c r="J116" s="137"/>
-      <c r="K116" s="137"/>
-      <c r="L116" s="137"/>
-      <c r="M116" s="137"/>
-      <c r="N116" s="137"/>
-      <c r="O116" s="137"/>
-      <c r="P116" s="137"/>
+      <c r="B116" s="136"/>
+      <c r="C116" s="136"/>
+      <c r="D116" s="136"/>
+      <c r="E116" s="136"/>
+      <c r="F116" s="136"/>
+      <c r="G116" s="136"/>
+      <c r="H116" s="136"/>
+      <c r="I116" s="136"/>
+      <c r="J116" s="136"/>
+      <c r="K116" s="136"/>
+      <c r="L116" s="136"/>
+      <c r="M116" s="136"/>
+      <c r="N116" s="136"/>
+      <c r="O116" s="136"/>
+      <c r="P116" s="136"/>
       <c r="Q116" s="64"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -5641,24 +5639,24 @@
       </c>
     </row>
     <row r="118" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="137" t="s">
+      <c r="A118" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="B118" s="137"/>
-      <c r="C118" s="137"/>
-      <c r="D118" s="137"/>
-      <c r="E118" s="137"/>
-      <c r="F118" s="137"/>
-      <c r="G118" s="137"/>
-      <c r="H118" s="137"/>
-      <c r="I118" s="137"/>
-      <c r="J118" s="137"/>
-      <c r="K118" s="137"/>
-      <c r="L118" s="137"/>
-      <c r="M118" s="137"/>
-      <c r="N118" s="137"/>
-      <c r="O118" s="137"/>
-      <c r="P118" s="137"/>
+      <c r="B118" s="136"/>
+      <c r="C118" s="136"/>
+      <c r="D118" s="136"/>
+      <c r="E118" s="136"/>
+      <c r="F118" s="136"/>
+      <c r="G118" s="136"/>
+      <c r="H118" s="136"/>
+      <c r="I118" s="136"/>
+      <c r="J118" s="136"/>
+      <c r="K118" s="136"/>
+      <c r="L118" s="136"/>
+      <c r="M118" s="136"/>
+      <c r="N118" s="136"/>
+      <c r="O118" s="136"/>
+      <c r="P118" s="136"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="77" t="s">
@@ -5683,6 +5681,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <mergeCells count="21">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A118:P118"/>
     <mergeCell ref="A116:P116"/>
     <mergeCell ref="B1:F1"/>
@@ -5699,11 +5702,6 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B7">
@@ -5826,12 +5824,12 @@
         <f>Budget!B4</f>
         <v>0.54</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
@@ -5887,22 +5885,22 @@
       <c r="C7" s="145"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="141" t="s">
+      <c r="G8" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="141" t="s">
+      <c r="H8" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="141" t="s">
+      <c r="I8" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="141" t="s">
+      <c r="J8" s="140" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5910,12 +5908,12 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
+      <c r="D9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
       <c r="K9" s="51" t="s">
         <v>25</v>
       </c>
@@ -5945,15 +5943,15 @@
       <c r="C10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="141"/>
+      <c r="D10" s="140"/>
       <c r="E10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
       <c r="K10" s="51">
         <v>1</v>
       </c>
@@ -8470,16 +8468,16 @@
         <f>Budget!B4</f>
         <v>0.54</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
@@ -8523,10 +8521,10 @@
       <c r="L6" s="45"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="149" t="s">
+      <c r="F8" s="147" t="s">
         <v>125</v>
       </c>
       <c r="G8" s="1"/>
@@ -8544,18 +8542,18 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="146" t="s">
+      <c r="D9" s="140"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="146" t="s">
+      <c r="H9" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="I9" s="147" t="s">
+      <c r="I9" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="150" t="s">
+      <c r="J9" s="148" t="s">
         <v>123</v>
       </c>
       <c r="K9" s="54"/>
@@ -8576,15 +8574,15 @@
       <c r="C10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="141"/>
+      <c r="D10" s="140"/>
       <c r="E10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="149"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="150"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="148"/>
       <c r="K10" s="54" t="s">
         <v>116</v>
       </c>
@@ -9101,7 +9099,7 @@
       <c r="F24" s="26"/>
       <c r="G24" s="7">
         <f>Budget!P24</f>
-        <v>18730</v>
+        <v>4772</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7">
@@ -9136,7 +9134,7 @@
       <c r="F25" s="26"/>
       <c r="G25" s="7">
         <f>Budget!P25</f>
-        <v>18730</v>
+        <v>0</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
@@ -9166,7 +9164,7 @@
       <c r="F26" s="27"/>
       <c r="G26" s="28">
         <f>Budget!P26</f>
-        <v>212622</v>
+        <v>179934</v>
       </c>
       <c r="H26" s="28">
         <f t="shared" ref="H26:I26" si="2">SUM(H11:H25)</f>
@@ -9786,7 +9784,7 @@
       <c r="F46" s="30"/>
       <c r="G46" s="31">
         <f>Budget!P46</f>
-        <v>220878</v>
+        <v>188190</v>
       </c>
       <c r="H46" s="31">
         <f t="shared" ref="H46:I46" si="6">H44+H26</f>
@@ -10095,7 +10093,7 @@
       </c>
       <c r="G59" s="7">
         <f>Budget!P59</f>
-        <v>37459</v>
+        <v>3000</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -10114,7 +10112,7 @@
       </c>
       <c r="G60" s="7">
         <f>Budget!P60</f>
-        <v>18730</v>
+        <v>6000</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -10135,7 +10133,7 @@
       <c r="F61" s="30"/>
       <c r="G61" s="31">
         <f>Budget!P61</f>
-        <v>56189</v>
+        <v>9000</v>
       </c>
       <c r="H61" s="31">
         <f t="shared" ref="H61:J61" si="12">SUM(H59:H60)</f>
@@ -10439,7 +10437,7 @@
       </c>
       <c r="G74" s="7">
         <f>Budget!P73</f>
-        <v>6243</v>
+        <v>0</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -10461,7 +10459,7 @@
       </c>
       <c r="G75" s="7">
         <f>Budget!P74</f>
-        <v>3122</v>
+        <v>0</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -10667,7 +10665,7 @@
       <c r="F83" s="30"/>
       <c r="G83" s="31">
         <f>Budget!P82</f>
-        <v>55609</v>
+        <v>46244</v>
       </c>
       <c r="H83" s="31">
         <f t="shared" ref="H83:J83" si="18">SUM(H74:H82)</f>
@@ -11059,7 +11057,7 @@
       <c r="F99" s="27"/>
       <c r="G99" s="28">
         <f>Budget!P98</f>
-        <v>332676</v>
+        <v>243434</v>
       </c>
       <c r="H99" s="28">
         <f>H46+H51+H56+H70+H83+H89+H61</f>
@@ -11105,7 +11103,7 @@
       <c r="F101" s="30"/>
       <c r="G101" s="31">
         <f>Budget!P100</f>
-        <v>154673</v>
+        <v>106482</v>
       </c>
       <c r="H101" s="31">
         <f>ROUND(H105*$B$101,0)</f>
@@ -11148,7 +11146,7 @@
       <c r="F103" s="23"/>
       <c r="G103" s="24">
         <f>Budget!P102</f>
-        <v>487349</v>
+        <v>349916</v>
       </c>
       <c r="H103" s="24">
         <f>H99+H101</f>
@@ -11191,7 +11189,7 @@
       <c r="F105" s="27"/>
       <c r="G105" s="28">
         <f>Budget!P104</f>
-        <v>286432</v>
+        <v>197190</v>
       </c>
       <c r="H105" s="28">
         <f>H99-H56-H70-H80-H82-H89+H95</f>
@@ -11363,7 +11361,7 @@
       <c r="F112" s="34"/>
       <c r="G112" s="35">
         <f>G103+G110</f>
-        <v>533593</v>
+        <v>396160</v>
       </c>
       <c r="H112" s="35">
         <f t="shared" ref="H112:I112" si="27">H103+H110</f>
@@ -11398,45 +11396,45 @@
       </c>
     </row>
     <row r="115" spans="1:17" s="65" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="137" t="s">
+      <c r="A115" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="B115" s="137"/>
-      <c r="C115" s="137"/>
-      <c r="D115" s="137"/>
-      <c r="E115" s="137"/>
-      <c r="F115" s="137"/>
-      <c r="G115" s="137"/>
-      <c r="H115" s="137"/>
-      <c r="I115" s="137"/>
-      <c r="J115" s="137"/>
-      <c r="K115" s="137"/>
-      <c r="L115" s="137"/>
-      <c r="M115" s="137"/>
-      <c r="N115" s="137"/>
-      <c r="O115" s="137"/>
-      <c r="P115" s="137"/>
+      <c r="B115" s="136"/>
+      <c r="C115" s="136"/>
+      <c r="D115" s="136"/>
+      <c r="E115" s="136"/>
+      <c r="F115" s="136"/>
+      <c r="G115" s="136"/>
+      <c r="H115" s="136"/>
+      <c r="I115" s="136"/>
+      <c r="J115" s="136"/>
+      <c r="K115" s="136"/>
+      <c r="L115" s="136"/>
+      <c r="M115" s="136"/>
+      <c r="N115" s="136"/>
+      <c r="O115" s="136"/>
+      <c r="P115" s="136"/>
       <c r="Q115" s="64"/>
     </row>
     <row r="116" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="137" t="s">
+      <c r="A116" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="B116" s="137"/>
-      <c r="C116" s="137"/>
-      <c r="D116" s="137"/>
-      <c r="E116" s="137"/>
-      <c r="F116" s="137"/>
-      <c r="G116" s="137"/>
-      <c r="H116" s="137"/>
-      <c r="I116" s="137"/>
-      <c r="J116" s="137"/>
-      <c r="K116" s="137"/>
-      <c r="L116" s="137"/>
-      <c r="M116" s="137"/>
-      <c r="N116" s="137"/>
-      <c r="O116" s="137"/>
-      <c r="P116" s="137"/>
+      <c r="B116" s="136"/>
+      <c r="C116" s="136"/>
+      <c r="D116" s="136"/>
+      <c r="E116" s="136"/>
+      <c r="F116" s="136"/>
+      <c r="G116" s="136"/>
+      <c r="H116" s="136"/>
+      <c r="I116" s="136"/>
+      <c r="J116" s="136"/>
+      <c r="K116" s="136"/>
+      <c r="L116" s="136"/>
+      <c r="M116" s="136"/>
+      <c r="N116" s="136"/>
+      <c r="O116" s="136"/>
+      <c r="P116" s="136"/>
       <c r="Q116" s="64"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -11466,6 +11464,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A115:P115"/>
+    <mergeCell ref="A116:P116"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="D4:G4"/>
@@ -11473,11 +11476,6 @@
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A115:P115"/>
-    <mergeCell ref="A116:P116"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A58" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -11576,12 +11574,12 @@
         <f>'Cost Share'!B4</f>
         <v>0.54</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
@@ -11637,19 +11635,19 @@
       <c r="C7" s="145"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="140" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="141" t="s">
+      <c r="G8" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="141" t="s">
+      <c r="H8" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="141" t="s">
+      <c r="I8" s="140" t="s">
         <v>130</v>
       </c>
       <c r="J8" s="143" t="s">
@@ -11666,11 +11664,11 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
+      <c r="D9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
       <c r="J9" s="143"/>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
@@ -11689,14 +11687,14 @@
       <c r="C10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="141"/>
+      <c r="D10" s="140"/>
       <c r="E10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
       <c r="J10" s="143"/>
       <c r="K10" s="49" t="s">
         <v>116</v>

--- a/Budget_and_Justification/2022 Budget/Hickernell_NSF_CDSE-MSS_Budget_v2_07-07-23_revised.xlsx
+++ b/Budget_and_Justification/2022 Budget/Hickernell_NSF_CDSE-MSS_Budget_v2_07-07-23_revised.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredjhickernell/SoftwareRepositories/NSF_2020_CDSE_MSS/Budget_and_Justification/2022 budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredjhickernell/SoftwareRepositories/NSF_2020_CDSE_MSS/Budget_and_Justification/2022 Budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F4F165-EC94-EF4E-A9CE-CFE458DB31CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B14F68-B2D7-B943-A8F3-207BFC1732F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="500" windowWidth="34160" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -1793,6 +1793,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1812,10 +1816,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1832,6 +1832,14 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1841,14 +1849,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2201,7 +2201,7 @@
   </sheetPr>
   <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -2226,13 +2226,13 @@
       <c r="A1" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="138" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
       <c r="G1" s="116" t="s">
         <v>148</v>
       </c>
@@ -2270,14 +2270,14 @@
         <v>27</v>
       </c>
       <c r="B4" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="D4" s="139" t="s">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D4" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
       <c r="I4" s="122" t="s">
         <v>153</v>
       </c>
@@ -2299,13 +2299,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="4">
-        <v>0.20899999999999999</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="F5" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="4">
-        <v>0.249</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="I5" s="123" t="s">
         <v>154</v>
@@ -2364,22 +2364,22 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="140" t="s">
+      <c r="H8" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="140" t="s">
+      <c r="I8" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="140" t="s">
+      <c r="J8" s="141" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2387,12 +2387,12 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="O9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="138" t="s">
+      <c r="P9" s="139" t="s">
         <v>26</v>
       </c>
       <c r="Q9" s="54"/>
@@ -2423,15 +2423,15 @@
       <c r="C10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="140"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
       <c r="K10" s="1">
         <v>1</v>
       </c>
@@ -2447,13 +2447,13 @@
       <c r="O10" s="1">
         <v>5</v>
       </c>
-      <c r="P10" s="138"/>
+      <c r="P10" s="139"/>
       <c r="Q10" s="54" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="141" t="str">
+      <c r="A11" s="136" t="str">
         <f>B1</f>
         <v>Fred Hickernell</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="141"/>
+      <c r="A12" s="136"/>
       <c r="B12" s="49" t="str">
         <f>B11</f>
         <v>PI</v>
@@ -2555,7 +2555,7 @@
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="136" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="49" t="s">
@@ -2602,7 +2602,7 @@
       <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="141"/>
+      <c r="A14" s="136"/>
       <c r="B14" s="49" t="str">
         <f>B13</f>
         <v>Co-PI 1</v>
@@ -2656,7 +2656,7 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="141"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="49" t="s">
         <v>90</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="141"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="49" t="str">
         <f>B15</f>
         <v>Co-PI 2</v>
@@ -2745,7 +2745,7 @@
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="141"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="49" t="s">
         <v>91</v>
       </c>
@@ -2786,7 +2786,7 @@
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="141"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="49" t="str">
         <f>B17</f>
         <v>Co-PI 3</v>
@@ -2834,7 +2834,7 @@
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="141"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="49" t="s">
         <v>92</v>
       </c>
@@ -2875,7 +2875,7 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="141"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="49" t="str">
         <f>B19</f>
         <v>Co-PI 4</v>
@@ -3075,11 +3075,9 @@
         <v>0</v>
       </c>
       <c r="G24" s="26">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H24" s="26">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="7">
@@ -3088,11 +3086,11 @@
       </c>
       <c r="L24" s="7">
         <f>IF($D$24&gt;0,ROUND((G24*$E24*$B$5^(L$10-1))/$D$24,0),0)</f>
-        <v>2392</v>
+        <v>3328</v>
       </c>
       <c r="M24" s="7">
         <f>IF($D$24&gt;0,ROUND((H24*$E24*$B$5^(M$10-1))/$D$24,0),0)</f>
-        <v>2380</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
         <f>IF($D$24&gt;0,ROUND((I24*$E24*$B$5^(N$10-1))/$D$24,0),0)</f>
@@ -3104,7 +3102,7 @@
       </c>
       <c r="P24" s="8">
         <f t="shared" si="1"/>
-        <v>4772</v>
+        <v>3328</v>
       </c>
       <c r="Q24" s="10"/>
     </row>
@@ -3180,11 +3178,11 @@
       </c>
       <c r="L26" s="28">
         <f t="shared" si="2"/>
-        <v>60749</v>
+        <v>61685</v>
       </c>
       <c r="M26" s="28">
         <f t="shared" si="2"/>
-        <v>63072</v>
+        <v>60692</v>
       </c>
       <c r="N26" s="28">
         <f t="shared" si="2"/>
@@ -3196,11 +3194,11 @@
       </c>
       <c r="P26" s="29">
         <f>SUM(P11:P25)</f>
-        <v>179934</v>
+        <v>178490</v>
       </c>
       <c r="Q26" s="10">
         <f>SUM(K26:O26)</f>
-        <v>179934</v>
+        <v>178490</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -3228,7 +3226,7 @@
       <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="141" t="str">
+      <c r="A29" s="136" t="str">
         <f t="shared" ref="A29:C41" si="3">A11</f>
         <v>Fred Hickernell</v>
       </c>
@@ -3267,7 +3265,7 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="141"/>
+      <c r="A30" s="136"/>
       <c r="B30" s="49" t="str">
         <f t="shared" si="3"/>
         <v>PI</v>
@@ -3303,7 +3301,7 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="141" t="str">
+      <c r="A31" s="136" t="str">
         <f t="shared" si="3"/>
         <v>Yuhan Ding</v>
       </c>
@@ -3342,7 +3340,7 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="141"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="49" t="str">
         <f t="shared" si="3"/>
         <v>Co-PI 1</v>
@@ -3378,7 +3376,7 @@
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="141">
+      <c r="A33" s="136">
         <f>A15</f>
         <v>0</v>
       </c>
@@ -3417,7 +3415,7 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="141"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="49" t="str">
         <f t="shared" si="3"/>
         <v>Co-PI 2</v>
@@ -3453,7 +3451,7 @@
       <c r="Q34" s="10"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="141">
+      <c r="A35" s="136">
         <f>A17</f>
         <v>0</v>
       </c>
@@ -3492,7 +3490,7 @@
       <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="141"/>
+      <c r="A36" s="136"/>
       <c r="B36" s="49" t="str">
         <f t="shared" si="3"/>
         <v>Co-PI 3</v>
@@ -3528,7 +3526,7 @@
       <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="141">
+      <c r="A37" s="136">
         <f>A19</f>
         <v>0</v>
       </c>
@@ -3567,7 +3565,7 @@
       <c r="Q37" s="10"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="141"/>
+      <c r="A38" s="136"/>
       <c r="B38" s="49" t="str">
         <f t="shared" si="3"/>
         <v>Co-PI 4</v>
@@ -3862,11 +3860,11 @@
       </c>
       <c r="L46" s="31">
         <f t="shared" si="7"/>
-        <v>63499</v>
+        <v>64435</v>
       </c>
       <c r="M46" s="31">
         <f t="shared" si="7"/>
-        <v>65933</v>
+        <v>63553</v>
       </c>
       <c r="N46" s="31">
         <f t="shared" si="7"/>
@@ -3878,11 +3876,11 @@
       </c>
       <c r="P46" s="32">
         <f t="shared" si="7"/>
-        <v>188190</v>
+        <v>186746</v>
       </c>
       <c r="Q46" s="10">
         <f>SUM(K46:O46)</f>
-        <v>188190</v>
+        <v>186746</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -5196,11 +5194,11 @@
       </c>
       <c r="L98" s="28">
         <f>L46+L51+L56+L69+L82+L88+L61</f>
-        <v>81906</v>
+        <v>82842</v>
       </c>
       <c r="M98" s="28">
         <f>M46+M51+M56+M69+M82+M88+M61</f>
-        <v>84956</v>
+        <v>82576</v>
       </c>
       <c r="N98" s="28">
         <f>N46+N51+N56+N69+N82+N88+N61</f>
@@ -5212,11 +5210,11 @@
       </c>
       <c r="P98" s="29">
         <f>SUM(K98:O98)</f>
-        <v>243434</v>
+        <v>241990</v>
       </c>
       <c r="Q98" s="10">
         <f>P46+P51+P56+P69+P82+P88+P61</f>
-        <v>243434</v>
+        <v>241990</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -5229,7 +5227,7 @@
       </c>
       <c r="B100" s="33">
         <f>B4</f>
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C100" s="30"/>
       <c r="D100" s="30"/>
@@ -5241,15 +5239,15 @@
       <c r="J100" s="30"/>
       <c r="K100" s="31">
         <f>ROUND(K104*$B$100,0)</f>
-        <v>33349</v>
+        <v>33967</v>
       </c>
       <c r="L100" s="31">
         <f>ROUND(L104*$B$100,0)</f>
-        <v>35909</v>
+        <v>37089</v>
       </c>
       <c r="M100" s="31">
         <f>ROUND(M104*$B$100,0)</f>
-        <v>37224</v>
+        <v>36604</v>
       </c>
       <c r="N100" s="31">
         <f>ROUND(N104*$B$100,0)</f>
@@ -5261,11 +5259,11 @@
       </c>
       <c r="P100" s="32">
         <f>SUM(K100:O100)</f>
-        <v>106482</v>
+        <v>107660</v>
       </c>
       <c r="Q100" s="10">
         <f>ROUND(P104*$B$100,0)</f>
-        <v>106483</v>
+        <v>107660</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -5287,15 +5285,15 @@
       <c r="J102" s="23"/>
       <c r="K102" s="24">
         <f>K98+K100</f>
-        <v>109921</v>
+        <v>110539</v>
       </c>
       <c r="L102" s="24">
         <f>L98+L100</f>
-        <v>117815</v>
+        <v>119931</v>
       </c>
       <c r="M102" s="24">
         <f>M98+M100</f>
-        <v>122180</v>
+        <v>119180</v>
       </c>
       <c r="N102" s="24">
         <f>N98+N100</f>
@@ -5307,11 +5305,11 @@
       </c>
       <c r="P102" s="25">
         <f>SUM(K102:O102)</f>
-        <v>349916</v>
+        <v>349650</v>
       </c>
       <c r="Q102" s="10">
         <f>P98+P100</f>
-        <v>349916</v>
+        <v>349650</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -5337,11 +5335,11 @@
       </c>
       <c r="L104" s="28">
         <f>L98-L56-L69-L79-L81-L88+L94</f>
-        <v>66499</v>
+        <v>67435</v>
       </c>
       <c r="M104" s="28">
         <f>M98-M56-M69-M79-M81-M88+M94</f>
-        <v>68933</v>
+        <v>66553</v>
       </c>
       <c r="N104" s="28">
         <f>N98-N56-N69-N79-N81-N88+N94</f>
@@ -5353,11 +5351,11 @@
       </c>
       <c r="P104" s="29">
         <f>SUM(K104:O104)</f>
-        <v>197190</v>
+        <v>195746</v>
       </c>
       <c r="Q104" s="9">
         <f>P98-P56-P69-P79-P81-P88+P94</f>
-        <v>197190</v>
+        <v>195746</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -5526,15 +5524,15 @@
       <c r="J111" s="34"/>
       <c r="K111" s="35">
         <f>K102+K109</f>
-        <v>124735</v>
+        <v>125353</v>
       </c>
       <c r="L111" s="35">
         <f t="shared" ref="L111:O111" si="17">L102+L109</f>
-        <v>133222</v>
+        <v>135338</v>
       </c>
       <c r="M111" s="35">
         <f t="shared" si="17"/>
-        <v>138203</v>
+        <v>135203</v>
       </c>
       <c r="N111" s="35">
         <f t="shared" si="17"/>
@@ -5546,11 +5544,11 @@
       </c>
       <c r="P111" s="36">
         <f>SUM(K111:O111)</f>
-        <v>396160</v>
+        <v>395894</v>
       </c>
       <c r="Q111" s="10">
         <f>P102+P109</f>
-        <v>396160</v>
+        <v>395894</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -5559,15 +5557,15 @@
       </c>
       <c r="K112" s="37">
         <f t="shared" ref="K112:O112" si="18">K109/K111</f>
-        <v>0.11876377921192929</v>
+        <v>0.11817826458082376</v>
       </c>
       <c r="L112" s="37">
         <f t="shared" si="18"/>
-        <v>0.11564906697092071</v>
+        <v>0.11384090203786076</v>
       </c>
       <c r="M112" s="37">
         <f t="shared" si="18"/>
-        <v>0.11593814895479837</v>
+        <v>0.11851068393452809</v>
       </c>
       <c r="N112" s="37" t="e">
         <f t="shared" si="18"/>
@@ -5579,7 +5577,7 @@
       </c>
       <c r="P112" s="37">
         <f>P109/P111</f>
-        <v>0.11673061389337641</v>
+        <v>0.11680904484533738</v>
       </c>
       <c r="Q112" s="43"/>
     </row>
@@ -5613,24 +5611,24 @@
       </c>
     </row>
     <row r="116" spans="1:17" s="65" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="136" t="s">
+      <c r="A116" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="B116" s="136"/>
-      <c r="C116" s="136"/>
-      <c r="D116" s="136"/>
-      <c r="E116" s="136"/>
-      <c r="F116" s="136"/>
-      <c r="G116" s="136"/>
-      <c r="H116" s="136"/>
-      <c r="I116" s="136"/>
-      <c r="J116" s="136"/>
-      <c r="K116" s="136"/>
-      <c r="L116" s="136"/>
-      <c r="M116" s="136"/>
-      <c r="N116" s="136"/>
-      <c r="O116" s="136"/>
-      <c r="P116" s="136"/>
+      <c r="B116" s="137"/>
+      <c r="C116" s="137"/>
+      <c r="D116" s="137"/>
+      <c r="E116" s="137"/>
+      <c r="F116" s="137"/>
+      <c r="G116" s="137"/>
+      <c r="H116" s="137"/>
+      <c r="I116" s="137"/>
+      <c r="J116" s="137"/>
+      <c r="K116" s="137"/>
+      <c r="L116" s="137"/>
+      <c r="M116" s="137"/>
+      <c r="N116" s="137"/>
+      <c r="O116" s="137"/>
+      <c r="P116" s="137"/>
       <c r="Q116" s="64"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -5639,24 +5637,24 @@
       </c>
     </row>
     <row r="118" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="136" t="s">
+      <c r="A118" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="B118" s="136"/>
-      <c r="C118" s="136"/>
-      <c r="D118" s="136"/>
-      <c r="E118" s="136"/>
-      <c r="F118" s="136"/>
-      <c r="G118" s="136"/>
-      <c r="H118" s="136"/>
-      <c r="I118" s="136"/>
-      <c r="J118" s="136"/>
-      <c r="K118" s="136"/>
-      <c r="L118" s="136"/>
-      <c r="M118" s="136"/>
-      <c r="N118" s="136"/>
-      <c r="O118" s="136"/>
-      <c r="P118" s="136"/>
+      <c r="B118" s="137"/>
+      <c r="C118" s="137"/>
+      <c r="D118" s="137"/>
+      <c r="E118" s="137"/>
+      <c r="F118" s="137"/>
+      <c r="G118" s="137"/>
+      <c r="H118" s="137"/>
+      <c r="I118" s="137"/>
+      <c r="J118" s="137"/>
+      <c r="K118" s="137"/>
+      <c r="L118" s="137"/>
+      <c r="M118" s="137"/>
+      <c r="N118" s="137"/>
+      <c r="O118" s="137"/>
+      <c r="P118" s="137"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="77" t="s">
@@ -5681,11 +5679,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <mergeCells count="21">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A118:P118"/>
     <mergeCell ref="A116:P116"/>
     <mergeCell ref="B1:F1"/>
@@ -5702,6 +5695,11 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B7">
@@ -5822,14 +5820,14 @@
       </c>
       <c r="B4" s="52">
         <f>Budget!B4</f>
-        <v>0.54</v>
-      </c>
-      <c r="D4" s="139" t="s">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
@@ -5844,14 +5842,14 @@
       </c>
       <c r="E5" s="52">
         <f>Budget!E5</f>
-        <v>0.20899999999999999</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="F5" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="52">
         <f>Budget!G5</f>
-        <v>0.249</v>
+        <v>0.29799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5885,22 +5883,22 @@
       <c r="C7" s="145"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="140" t="s">
+      <c r="H8" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="140" t="s">
+      <c r="I8" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="140" t="s">
+      <c r="J8" s="141" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5908,12 +5906,12 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
       <c r="K9" s="51" t="s">
         <v>25</v>
       </c>
@@ -5943,15 +5941,15 @@
       <c r="C10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="140"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
       <c r="K10" s="51">
         <v>1</v>
       </c>
@@ -8221,7 +8219,7 @@
       </c>
       <c r="B80" s="59">
         <f>B4</f>
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -8466,18 +8464,18 @@
       </c>
       <c r="B4" s="4">
         <f>Budget!B4</f>
-        <v>0.54</v>
-      </c>
-      <c r="D4" s="139" t="s">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D4" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
@@ -8521,10 +8519,10 @@
       <c r="L6" s="45"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="147" t="s">
+      <c r="F8" s="149" t="s">
         <v>125</v>
       </c>
       <c r="G8" s="1"/>
@@ -8542,18 +8540,18 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="149" t="s">
+      <c r="D9" s="141"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="146" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="149" t="s">
+      <c r="H9" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="I9" s="150" t="s">
+      <c r="I9" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="148" t="s">
+      <c r="J9" s="150" t="s">
         <v>123</v>
       </c>
       <c r="K9" s="54"/>
@@ -8574,15 +8572,15 @@
       <c r="C10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="140"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="147"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="148"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="150"/>
       <c r="K10" s="54" t="s">
         <v>116</v>
       </c>
@@ -9099,7 +9097,7 @@
       <c r="F24" s="26"/>
       <c r="G24" s="7">
         <f>Budget!P24</f>
-        <v>4772</v>
+        <v>3328</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7">
@@ -9164,7 +9162,7 @@
       <c r="F26" s="27"/>
       <c r="G26" s="28">
         <f>Budget!P26</f>
-        <v>179934</v>
+        <v>178490</v>
       </c>
       <c r="H26" s="28">
         <f t="shared" ref="H26:I26" si="2">SUM(H11:H25)</f>
@@ -9784,7 +9782,7 @@
       <c r="F46" s="30"/>
       <c r="G46" s="31">
         <f>Budget!P46</f>
-        <v>188190</v>
+        <v>186746</v>
       </c>
       <c r="H46" s="31">
         <f t="shared" ref="H46:I46" si="6">H44+H26</f>
@@ -11057,7 +11055,7 @@
       <c r="F99" s="27"/>
       <c r="G99" s="28">
         <f>Budget!P98</f>
-        <v>243434</v>
+        <v>241990</v>
       </c>
       <c r="H99" s="28">
         <f>H46+H51+H56+H70+H83+H89+H61</f>
@@ -11095,7 +11093,7 @@
       </c>
       <c r="B101" s="33">
         <f>B4</f>
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C101" s="30"/>
       <c r="D101" s="30"/>
@@ -11103,7 +11101,7 @@
       <c r="F101" s="30"/>
       <c r="G101" s="31">
         <f>Budget!P100</f>
-        <v>106482</v>
+        <v>107660</v>
       </c>
       <c r="H101" s="31">
         <f>ROUND(H105*$B$101,0)</f>
@@ -11146,7 +11144,7 @@
       <c r="F103" s="23"/>
       <c r="G103" s="24">
         <f>Budget!P102</f>
-        <v>349916</v>
+        <v>349650</v>
       </c>
       <c r="H103" s="24">
         <f>H99+H101</f>
@@ -11189,7 +11187,7 @@
       <c r="F105" s="27"/>
       <c r="G105" s="28">
         <f>Budget!P104</f>
-        <v>197190</v>
+        <v>195746</v>
       </c>
       <c r="H105" s="28">
         <f>H99-H56-H70-H80-H82-H89+H95</f>
@@ -11361,7 +11359,7 @@
       <c r="F112" s="34"/>
       <c r="G112" s="35">
         <f>G103+G110</f>
-        <v>396160</v>
+        <v>395894</v>
       </c>
       <c r="H112" s="35">
         <f t="shared" ref="H112:I112" si="27">H103+H110</f>
@@ -11396,45 +11394,45 @@
       </c>
     </row>
     <row r="115" spans="1:17" s="65" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="136" t="s">
+      <c r="A115" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="B115" s="136"/>
-      <c r="C115" s="136"/>
-      <c r="D115" s="136"/>
-      <c r="E115" s="136"/>
-      <c r="F115" s="136"/>
-      <c r="G115" s="136"/>
-      <c r="H115" s="136"/>
-      <c r="I115" s="136"/>
-      <c r="J115" s="136"/>
-      <c r="K115" s="136"/>
-      <c r="L115" s="136"/>
-      <c r="M115" s="136"/>
-      <c r="N115" s="136"/>
-      <c r="O115" s="136"/>
-      <c r="P115" s="136"/>
+      <c r="B115" s="137"/>
+      <c r="C115" s="137"/>
+      <c r="D115" s="137"/>
+      <c r="E115" s="137"/>
+      <c r="F115" s="137"/>
+      <c r="G115" s="137"/>
+      <c r="H115" s="137"/>
+      <c r="I115" s="137"/>
+      <c r="J115" s="137"/>
+      <c r="K115" s="137"/>
+      <c r="L115" s="137"/>
+      <c r="M115" s="137"/>
+      <c r="N115" s="137"/>
+      <c r="O115" s="137"/>
+      <c r="P115" s="137"/>
       <c r="Q115" s="64"/>
     </row>
     <row r="116" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="136" t="s">
+      <c r="A116" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="B116" s="136"/>
-      <c r="C116" s="136"/>
-      <c r="D116" s="136"/>
-      <c r="E116" s="136"/>
-      <c r="F116" s="136"/>
-      <c r="G116" s="136"/>
-      <c r="H116" s="136"/>
-      <c r="I116" s="136"/>
-      <c r="J116" s="136"/>
-      <c r="K116" s="136"/>
-      <c r="L116" s="136"/>
-      <c r="M116" s="136"/>
-      <c r="N116" s="136"/>
-      <c r="O116" s="136"/>
-      <c r="P116" s="136"/>
+      <c r="B116" s="137"/>
+      <c r="C116" s="137"/>
+      <c r="D116" s="137"/>
+      <c r="E116" s="137"/>
+      <c r="F116" s="137"/>
+      <c r="G116" s="137"/>
+      <c r="H116" s="137"/>
+      <c r="I116" s="137"/>
+      <c r="J116" s="137"/>
+      <c r="K116" s="137"/>
+      <c r="L116" s="137"/>
+      <c r="M116" s="137"/>
+      <c r="N116" s="137"/>
+      <c r="O116" s="137"/>
+      <c r="P116" s="137"/>
       <c r="Q116" s="64"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -11464,11 +11462,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A115:P115"/>
-    <mergeCell ref="A116:P116"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="D4:G4"/>
@@ -11476,6 +11469,11 @@
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A115:P115"/>
+    <mergeCell ref="A116:P116"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A58" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -11572,14 +11570,14 @@
       </c>
       <c r="B4" s="52">
         <f>'Cost Share'!B4</f>
-        <v>0.54</v>
-      </c>
-      <c r="D4" s="139" t="s">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
@@ -11635,19 +11633,19 @@
       <c r="C7" s="145"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="140" t="s">
+      <c r="H8" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="140" t="s">
+      <c r="I8" s="141" t="s">
         <v>130</v>
       </c>
       <c r="J8" s="143" t="s">
@@ -11664,11 +11662,11 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
       <c r="J9" s="143"/>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
@@ -11687,14 +11685,14 @@
       <c r="C10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="140"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
       <c r="J10" s="143"/>
       <c r="K10" s="49" t="s">
         <v>116</v>
@@ -13812,7 +13810,7 @@
       </c>
       <c r="B80" s="59">
         <f>B4</f>
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
